--- a/excel_params/0.9_params.xlsx
+++ b/excel_params/0.9_params.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\大四下\毕设\CODE\dp_crystmorph\regionI_double_peak\store_result_params\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\大四下\she_shishkebab\excel_params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD67F04E-4F33-4FE4-AD15-E9E9BF569427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF1E747-0904-4AFF-BE5A-F0503F43BC0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C7C02540-311F-499B-BDB9-0FA89CDCF641}"/>
+    <workbookView xWindow="60" yWindow="960" windowWidth="19785" windowHeight="7590" xr2:uid="{C7C02540-311F-499B-BDB9-0FA89CDCF641}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>d</t>
   </si>
@@ -167,6 +167,10 @@
   </si>
   <si>
     <t>GOOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE127C5-883C-4971-9896-E504EC162612}">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1803,6 +1807,103 @@
         <v>36</v>
       </c>
     </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>7.3424134787600952</v>
+      </c>
+      <c r="B27">
+        <v>138.29896365535009</v>
+      </c>
+      <c r="C27">
+        <v>42.819769819267968</v>
+      </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>280</v>
+      </c>
+      <c r="F27">
+        <v>9.4217427045218418</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>50</v>
+      </c>
+      <c r="I27">
+        <v>1.5172159698920451</v>
+      </c>
+      <c r="J27">
+        <v>110.6553491566256</v>
+      </c>
+      <c r="K27">
+        <v>59.560623800854046</v>
+      </c>
+      <c r="L27">
+        <v>17.452101205066626</v>
+      </c>
+      <c r="M27">
+        <v>0.28331447653934783</v>
+      </c>
+      <c r="N27">
+        <v>3.4310830815188984</v>
+      </c>
+      <c r="O27">
+        <v>2.7689957930925151</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>7.4811031552383245</v>
+      </c>
+      <c r="B28">
+        <v>136.07061523301056</v>
+      </c>
+      <c r="C28">
+        <v>44.491021462350297</v>
+      </c>
+      <c r="D28">
+        <v>11.734723457083298</v>
+      </c>
+      <c r="E28">
+        <v>280.55495927743601</v>
+      </c>
+      <c r="F28">
+        <v>9.2476277838689018</v>
+      </c>
+      <c r="G28">
+        <v>11.702448015203217</v>
+      </c>
+      <c r="H28">
+        <v>49.900779446332642</v>
+      </c>
+      <c r="I28">
+        <v>1.559008524349605</v>
+      </c>
+      <c r="J28">
+        <v>110.81974487993503</v>
+      </c>
+      <c r="K28">
+        <v>59.226797357232243</v>
+      </c>
+      <c r="L28">
+        <v>17.592283295577953</v>
+      </c>
+      <c r="M28">
+        <v>0.27799352194731619</v>
+      </c>
+      <c r="N28">
+        <v>3.4756065213333747</v>
+      </c>
+      <c r="O28">
+        <v>2.6839263026419995</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_params/0.9_params.xlsx
+++ b/excel_params/0.9_params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\大四下\she_shishkebab\excel_params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF1E747-0904-4AFF-BE5A-F0503F43BC0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D63416-A1B4-4948-BDE7-8B08F4C7C0F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="960" windowWidth="19785" windowHeight="7590" xr2:uid="{C7C02540-311F-499B-BDB9-0FA89CDCF641}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C7C02540-311F-499B-BDB9-0FA89CDCF641}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE127C5-883C-4971-9896-E504EC162612}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -745,363 +745,408 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>13.29346</v>
+        <v>13.741103553549078</v>
+      </c>
+      <c r="B5">
+        <v>730.22081181568183</v>
+      </c>
+      <c r="C5">
+        <v>63.116370100381047</v>
+      </c>
+      <c r="D5">
+        <v>22.383956597213285</v>
+      </c>
+      <c r="E5">
+        <v>66.994488446423574</v>
+      </c>
+      <c r="F5">
+        <v>6.2363311675512945</v>
+      </c>
+      <c r="G5">
+        <v>15.352423805858821</v>
+      </c>
+      <c r="H5">
+        <v>35.115759174787613</v>
+      </c>
+      <c r="I5">
+        <v>1.2809533600876466</v>
+      </c>
+      <c r="J5">
+        <v>112.07625457125054</v>
+      </c>
+      <c r="K5">
+        <v>56.49698864542539</v>
+      </c>
+      <c r="L5">
+        <v>16.789649076056996</v>
+      </c>
+      <c r="M5">
+        <v>0.31106817440035411</v>
+      </c>
+      <c r="N5">
+        <v>2.9886942131211303</v>
+      </c>
+      <c r="O5">
+        <v>1.4672625232525081</v>
+      </c>
+      <c r="P5">
+        <v>2.5323398820401911E-3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>13.741103553549078</v>
+        <v>5.812204655648693</v>
       </c>
       <c r="B6">
-        <v>730.22081181568183</v>
+        <v>1.06860257612011E-4</v>
       </c>
       <c r="C6">
-        <v>63.116370100381047</v>
+        <v>50.181488887531671</v>
       </c>
       <c r="D6">
-        <v>22.383956597213285</v>
+        <v>48.623222748722938</v>
       </c>
       <c r="E6">
-        <v>66.994488446423574</v>
+        <v>23.540307498146969</v>
       </c>
       <c r="F6">
-        <v>6.2363311675512945</v>
+        <v>38.882973616177765</v>
       </c>
       <c r="G6">
-        <v>15.352423805858821</v>
+        <v>56.573157251738493</v>
       </c>
       <c r="H6">
-        <v>35.115759174787613</v>
+        <v>8.8951914090081932</v>
       </c>
       <c r="I6">
-        <v>1.2809533600876466</v>
+        <v>1.7635057387105095</v>
       </c>
       <c r="J6">
-        <v>112.07625457125054</v>
+        <v>13.861689136941235</v>
       </c>
       <c r="K6">
-        <v>56.49698864542539</v>
+        <v>57.582738358259093</v>
       </c>
       <c r="L6">
-        <v>16.789649076056996</v>
+        <v>15.89963579485126</v>
       </c>
       <c r="M6">
-        <v>0.31106817440035411</v>
+        <v>0.43376935925549387</v>
       </c>
       <c r="N6">
-        <v>2.9886942131211303</v>
+        <v>2.5418656667325643</v>
       </c>
       <c r="O6">
-        <v>1.4672625232525081</v>
+        <v>0.45658218156287722</v>
       </c>
       <c r="P6">
-        <v>2.5323398820401911E-3</v>
+        <v>5.549358045397754E-3</v>
       </c>
       <c r="Q6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5.812204655648693</v>
+        <v>3.675064776949053</v>
       </c>
       <c r="B7">
-        <v>1.06860257612011E-4</v>
+        <v>1.8469566421616847E-5</v>
       </c>
       <c r="C7">
-        <v>50.181488887531671</v>
+        <v>45.968929835731913</v>
       </c>
       <c r="D7">
-        <v>48.623222748722938</v>
+        <v>47.434371791493575</v>
       </c>
       <c r="E7">
-        <v>23.540307498146969</v>
+        <v>26.40891708638733</v>
       </c>
       <c r="F7">
-        <v>38.882973616177765</v>
+        <v>41.335928335133573</v>
       </c>
       <c r="G7">
-        <v>56.573157251738493</v>
+        <v>66.607101675030563</v>
       </c>
       <c r="H7">
-        <v>8.8951914090081932</v>
+        <v>6.4848358355705367</v>
       </c>
       <c r="I7">
-        <v>1.7635057387105095</v>
+        <v>1.8874563120132875</v>
       </c>
       <c r="J7">
-        <v>13.861689136941235</v>
+        <v>20.734091605862421</v>
       </c>
       <c r="K7">
-        <v>57.582738358259093</v>
+        <v>57.607095174309208</v>
       </c>
       <c r="L7">
-        <v>15.89963579485126</v>
+        <v>16.151939484082611</v>
       </c>
       <c r="M7">
-        <v>0.43376935925549387</v>
+        <v>0.41379405785468409</v>
       </c>
       <c r="N7">
-        <v>2.5418656667325643</v>
+        <v>2.4095838833414644</v>
       </c>
       <c r="O7">
-        <v>0.45658218156287722</v>
-      </c>
-      <c r="P7">
-        <v>5.549358045397754E-3</v>
+        <v>0.33145981142045461</v>
       </c>
       <c r="Q7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>3.675064776949053</v>
+        <v>1.7992716848313965</v>
       </c>
       <c r="B8">
-        <v>1.8469566421616847E-5</v>
+        <v>2.6343045097620735E-6</v>
       </c>
       <c r="C8">
-        <v>45.968929835731913</v>
+        <v>44.750377385327909</v>
       </c>
       <c r="D8">
-        <v>47.434371791493575</v>
+        <v>44.427951214298581</v>
       </c>
       <c r="E8">
-        <v>26.40891708638733</v>
+        <v>30.801313326841896</v>
       </c>
       <c r="F8">
-        <v>41.335928335133573</v>
+        <v>42.802635954877374</v>
       </c>
       <c r="G8">
-        <v>66.607101675030563</v>
+        <v>68.086375696288556</v>
       </c>
       <c r="H8">
-        <v>6.4848358355705367</v>
+        <v>6.2014426386019839</v>
       </c>
       <c r="I8">
-        <v>1.8874563120132875</v>
+        <v>1.8500450500241081</v>
       </c>
       <c r="J8">
-        <v>20.734091605862421</v>
+        <v>27.568087281262446</v>
       </c>
       <c r="K8">
-        <v>57.607095174309208</v>
+        <v>57.615959134062827</v>
       </c>
       <c r="L8">
-        <v>16.151939484082611</v>
+        <v>16.181753878382352</v>
       </c>
       <c r="M8">
-        <v>0.41379405785468409</v>
+        <v>0.41494168804418752</v>
       </c>
       <c r="N8">
-        <v>2.4095838833414644</v>
+        <v>2.4435361179218673</v>
       </c>
       <c r="O8">
-        <v>0.33145981142045461</v>
+        <v>0.29919210011798553</v>
       </c>
       <c r="Q8" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="R8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1.7992716848313965</v>
+        <v>0.43086559617786258</v>
       </c>
       <c r="B9">
-        <v>2.6343045097620735E-6</v>
+        <v>1.5831890771602627E-6</v>
       </c>
       <c r="C9">
-        <v>44.750377385327909</v>
+        <v>42.336910294051343</v>
       </c>
       <c r="D9">
-        <v>44.427951214298581</v>
+        <v>41.531316225082925</v>
       </c>
       <c r="E9">
-        <v>30.801313326841896</v>
+        <v>36.21475502296839</v>
       </c>
       <c r="F9">
-        <v>42.802635954877374</v>
+        <v>45.135664671285504</v>
       </c>
       <c r="G9">
-        <v>68.086375696288556</v>
+        <v>69.851129252532161</v>
       </c>
       <c r="H9">
-        <v>6.2014426386019839</v>
+        <v>5.9212783769105126</v>
       </c>
       <c r="I9">
-        <v>1.8500450500241081</v>
+        <v>1.7325685451912722</v>
       </c>
       <c r="J9">
-        <v>27.568087281262446</v>
+        <v>33.849350497471718</v>
       </c>
       <c r="K9">
-        <v>57.615959134062827</v>
+        <v>57.580018862685407</v>
       </c>
       <c r="L9">
-        <v>16.181753878382352</v>
+        <v>16.151267568349081</v>
       </c>
       <c r="M9">
-        <v>0.41494168804418752</v>
+        <v>0.41376962965889091</v>
       </c>
       <c r="N9">
-        <v>2.4435361179218673</v>
+        <v>2.4597675269553014</v>
       </c>
       <c r="O9">
-        <v>0.29919210011798553</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" t="s">
-        <v>20</v>
+        <v>0.24478437096394673</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>0.43086559617786258</v>
+        <v>9.3043660647373265E-4</v>
       </c>
       <c r="B10">
-        <v>1.5831890771602627E-6</v>
+        <v>2.4329911694504264E-7</v>
       </c>
       <c r="C10">
-        <v>42.336910294051343</v>
+        <v>38.4055654287952</v>
       </c>
       <c r="D10">
-        <v>41.531316225082925</v>
+        <v>39.85846742730331</v>
       </c>
       <c r="E10">
-        <v>36.21475502296839</v>
+        <v>40.335338010578319</v>
       </c>
       <c r="F10">
-        <v>45.135664671285504</v>
+        <v>48.398019912486475</v>
       </c>
       <c r="G10">
-        <v>69.851129252532161</v>
+        <v>71.722773648024258</v>
       </c>
       <c r="H10">
-        <v>5.9212783769105126</v>
+        <v>5.6798269245389461</v>
       </c>
       <c r="I10">
-        <v>1.7325685451912722</v>
+        <v>1.598780051377177</v>
       </c>
       <c r="J10">
-        <v>33.849350497471718</v>
+        <v>40.868485319621861</v>
       </c>
       <c r="K10">
-        <v>57.580018862685407</v>
+        <v>57.542684931979842</v>
       </c>
       <c r="L10">
-        <v>16.151267568349081</v>
+        <v>16.010211821280937</v>
       </c>
       <c r="M10">
-        <v>0.41376962965889091</v>
+        <v>0.41245871894835739</v>
       </c>
       <c r="N10">
-        <v>2.4597675269553014</v>
+        <v>2.4368021789779526</v>
       </c>
       <c r="O10">
-        <v>0.24478437096394673</v>
+        <v>0.21126602917334214</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>9.3043660647373265E-4</v>
+        <v>0.51314710840187028</v>
       </c>
       <c r="B11">
-        <v>2.4329911694504264E-7</v>
+        <v>5.6951179288751531E-7</v>
       </c>
       <c r="C11">
-        <v>38.4055654287952</v>
+        <v>32.456113457220368</v>
       </c>
       <c r="D11">
-        <v>39.85846742730331</v>
+        <v>37.635589058974276</v>
       </c>
       <c r="E11">
-        <v>40.335338010578319</v>
+        <v>45.524191154402089</v>
       </c>
       <c r="F11">
-        <v>48.398019912486475</v>
+        <v>52.829478779651708</v>
       </c>
       <c r="G11">
-        <v>71.722773648024258</v>
+        <v>74.08678313133943</v>
       </c>
       <c r="H11">
-        <v>5.6798269245389461</v>
+        <v>5.5699208825280744</v>
       </c>
       <c r="I11">
-        <v>1.598780051377177</v>
+        <v>1.4516897007145595</v>
       </c>
       <c r="J11">
-        <v>40.868485319621861</v>
+        <v>44.649990142092058</v>
       </c>
       <c r="K11">
-        <v>57.542684931979842</v>
+        <v>57.558979151142694</v>
       </c>
       <c r="L11">
-        <v>16.010211821280937</v>
+        <v>15.524149292602589</v>
       </c>
       <c r="M11">
-        <v>0.41245871894835739</v>
+        <v>0.41372386727640525</v>
       </c>
       <c r="N11">
-        <v>2.4368021789779526</v>
+        <v>2.2879100304620206</v>
       </c>
       <c r="O11">
-        <v>0.21126602917334214</v>
+        <v>0.29727385456181232</v>
       </c>
       <c r="Q11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>0.51314710840187028</v>
+        <v>8.4189303654798842</v>
       </c>
       <c r="B12">
-        <v>5.6951179288751531E-7</v>
+        <v>6.4400736953252826</v>
       </c>
       <c r="C12">
-        <v>32.456113457220368</v>
+        <v>47.698072449202989</v>
       </c>
       <c r="D12">
-        <v>37.635589058974276</v>
+        <v>49.629629119283905</v>
       </c>
       <c r="E12">
-        <v>45.524191154402089</v>
+        <v>24.288778228546583</v>
       </c>
       <c r="F12">
-        <v>52.829478779651708</v>
+        <v>38.766501594142085</v>
       </c>
       <c r="G12">
-        <v>74.08678313133943</v>
+        <v>55.726280036832932</v>
       </c>
       <c r="H12">
-        <v>5.5699208825280744</v>
+        <v>8.2470517291587626</v>
       </c>
       <c r="I12">
-        <v>1.4516897007145595</v>
+        <v>1.4644068349434893</v>
       </c>
       <c r="J12">
-        <v>44.649990142092058</v>
+        <v>13.437737513661999</v>
       </c>
       <c r="K12">
-        <v>57.558979151142694</v>
+        <v>57.36945441545955</v>
       </c>
       <c r="L12">
-        <v>15.524149292602589</v>
+        <v>16.631459407055601</v>
       </c>
       <c r="M12">
-        <v>0.41372386727640525</v>
+        <v>0.4036622966645369</v>
       </c>
       <c r="N12">
-        <v>2.2879100304620206</v>
+        <v>2.6614505939197386</v>
       </c>
       <c r="O12">
-        <v>0.29727385456181232</v>
+        <v>0.23348433411867914</v>
       </c>
       <c r="Q12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1112,28 +1157,28 @@
         <v>6.4400736953252826</v>
       </c>
       <c r="C13">
-        <v>47.698072449202989</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>49.629629119283905</v>
+        <v>19</v>
       </c>
       <c r="E13">
-        <v>24.288778228546583</v>
+        <v>75</v>
       </c>
       <c r="F13">
-        <v>38.766501594142085</v>
+        <v>18</v>
       </c>
       <c r="G13">
-        <v>55.726280036832932</v>
+        <v>15</v>
       </c>
       <c r="H13">
-        <v>8.2470517291587626</v>
+        <v>55</v>
       </c>
       <c r="I13">
         <v>1.4644068349434893</v>
       </c>
       <c r="J13">
-        <v>13.437737513661999</v>
+        <v>100.437737513662</v>
       </c>
       <c r="K13">
         <v>57.36945441545955</v>
@@ -1151,304 +1196,304 @@
         <v>0.23348433411867914</v>
       </c>
       <c r="Q13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>8.4189303654798842</v>
+        <v>9.6284246069785571</v>
       </c>
       <c r="B14">
-        <v>6.4400736953252826</v>
+        <v>44.243539196980187</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>65.464093753859743</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>29.026394048457089</v>
       </c>
       <c r="E14">
-        <v>75</v>
+        <v>68.683653700515592</v>
       </c>
       <c r="F14">
-        <v>18</v>
+        <v>24.621166962247855</v>
       </c>
       <c r="G14">
-        <v>15</v>
+        <v>21.877757803775665</v>
       </c>
       <c r="H14">
-        <v>55</v>
+        <v>43.995582429875526</v>
       </c>
       <c r="I14">
-        <v>1.4644068349434893</v>
+        <v>0.52750999476559191</v>
       </c>
       <c r="J14">
-        <v>100.437737513662</v>
+        <v>86.779021131322367</v>
       </c>
       <c r="K14">
-        <v>57.36945441545955</v>
+        <v>57.433821116633638</v>
       </c>
       <c r="L14">
-        <v>16.631459407055601</v>
+        <v>17.835012755307979</v>
       </c>
       <c r="M14">
-        <v>0.4036622966645369</v>
+        <v>0.40315279651049191</v>
       </c>
       <c r="N14">
-        <v>2.6614505939197386</v>
+        <v>3.0757280269275933</v>
       </c>
       <c r="O14">
-        <v>0.23348433411867914</v>
+        <v>0.78428646136559121</v>
       </c>
       <c r="Q14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>9.6284246069785571</v>
+        <v>8.4189303654798842</v>
       </c>
       <c r="B15">
-        <v>44.243539196980187</v>
+        <v>6.4400736953252826</v>
       </c>
       <c r="C15">
-        <v>65.464093753859743</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>29.026394048457089</v>
+        <v>18</v>
       </c>
       <c r="E15">
-        <v>68.683653700515592</v>
+        <v>65</v>
       </c>
       <c r="F15">
-        <v>24.621166962247855</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>21.877757803775665</v>
+        <v>14</v>
       </c>
       <c r="H15">
-        <v>43.995582429875526</v>
+        <v>55</v>
       </c>
       <c r="I15">
-        <v>0.52750999476559191</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="J15">
-        <v>86.779021131322367</v>
+        <v>111</v>
       </c>
       <c r="K15">
-        <v>57.433821116633638</v>
+        <v>57.36945441545955</v>
       </c>
       <c r="L15">
-        <v>17.835012755307979</v>
+        <v>16.631459407055601</v>
       </c>
       <c r="M15">
-        <v>0.40315279651049191</v>
+        <v>0.4036622966645369</v>
       </c>
       <c r="N15">
-        <v>3.0757280269275933</v>
+        <v>2.6614505939197386</v>
       </c>
       <c r="O15">
-        <v>0.78428646136559121</v>
+        <v>0.23348433411867914</v>
       </c>
       <c r="Q15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>8.4189303654798842</v>
+        <v>8.8212913238422015</v>
       </c>
       <c r="B16">
-        <v>6.4400736953252826</v>
+        <v>61.944153574130226</v>
       </c>
       <c r="C16">
-        <v>33</v>
+        <v>67.152093201563019</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>32.939087049623119</v>
       </c>
       <c r="E16">
-        <v>65</v>
+        <v>53.57417615674219</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>23.62896712133141</v>
       </c>
       <c r="G16">
-        <v>14</v>
+        <v>20.111910900032193</v>
       </c>
       <c r="H16">
-        <v>55</v>
+        <v>51.970801273008298</v>
       </c>
       <c r="I16">
-        <v>0.79700000000000004</v>
+        <v>0.66335496612766032</v>
       </c>
       <c r="J16">
-        <v>111</v>
+        <v>105.12185246941883</v>
       </c>
       <c r="K16">
-        <v>57.36945441545955</v>
+        <v>57.348983235593288</v>
       </c>
       <c r="L16">
-        <v>16.631459407055601</v>
+        <v>17.491713766389996</v>
       </c>
       <c r="M16">
-        <v>0.4036622966645369</v>
+        <v>0.40249004454041609</v>
       </c>
       <c r="N16">
-        <v>2.6614505939197386</v>
+        <v>3.055419145305819</v>
       </c>
       <c r="O16">
-        <v>0.23348433411867914</v>
+        <v>1.1145608880613203</v>
       </c>
       <c r="Q16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>8.8212913238422015</v>
+        <v>8.37237898931701</v>
       </c>
       <c r="B17">
-        <v>61.944153574130226</v>
+        <v>72.979072831840554</v>
       </c>
       <c r="C17">
-        <v>67.152093201563019</v>
+        <v>66.978000278196205</v>
       </c>
       <c r="D17">
-        <v>32.939087049623119</v>
+        <v>32.027193023291268</v>
       </c>
       <c r="E17">
-        <v>53.57417615674219</v>
+        <v>56.750610383539517</v>
       </c>
       <c r="F17">
-        <v>23.62896712133141</v>
+        <v>23.731929809797336</v>
       </c>
       <c r="G17">
-        <v>20.111910900032193</v>
+        <v>19.254032293807395</v>
       </c>
       <c r="H17">
-        <v>51.970801273008298</v>
+        <v>56.436404685057354</v>
       </c>
       <c r="I17">
-        <v>0.66335496612766032</v>
+        <v>0.79041344781054679</v>
       </c>
       <c r="J17">
-        <v>105.12185246941883</v>
+        <v>104.08138269585876</v>
       </c>
       <c r="K17">
-        <v>57.348983235593288</v>
+        <v>57.321724608168168</v>
       </c>
       <c r="L17">
-        <v>17.491713766389996</v>
+        <v>17.549124158725565</v>
       </c>
       <c r="M17">
-        <v>0.40249004454041609</v>
+        <v>0.4012617561956856</v>
       </c>
       <c r="N17">
-        <v>3.055419145305819</v>
+        <v>3.0800339527263478</v>
       </c>
       <c r="O17">
-        <v>1.1145608880613203</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>26</v>
+        <v>1.1316535179085612</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>8.37237898931701</v>
+        <v>8.8212913238422015</v>
       </c>
       <c r="B18">
-        <v>72.979072831840554</v>
+        <v>61.944153574130226</v>
       </c>
       <c r="C18">
-        <v>66.978000278196205</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>32.027193023291268</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>56.750610383539517</v>
+        <v>200</v>
       </c>
       <c r="F18">
-        <v>23.731929809797336</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>19.254032293807395</v>
+        <v>9</v>
       </c>
       <c r="H18">
-        <v>56.436404685057354</v>
+        <v>100</v>
       </c>
       <c r="I18">
-        <v>0.79041344781054679</v>
+        <v>0.66335496612766032</v>
       </c>
       <c r="J18">
-        <v>104.08138269585876</v>
+        <v>105.12185246941883</v>
       </c>
       <c r="K18">
-        <v>57.321724608168168</v>
+        <v>57.348983235593288</v>
       </c>
       <c r="L18">
-        <v>17.549124158725565</v>
+        <v>17.491713766389996</v>
       </c>
       <c r="M18">
-        <v>0.4012617561956856</v>
+        <v>0.40249004454041609</v>
       </c>
       <c r="N18">
-        <v>3.0800339527263478</v>
+        <v>3.055419145305819</v>
       </c>
       <c r="O18">
-        <v>1.1316535179085612</v>
+        <v>1.1145608880613203</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>8.8212913238422015</v>
+        <v>8.6958561328788608</v>
       </c>
       <c r="B19">
-        <v>61.944153574130226</v>
+        <v>62.142981010099639</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>31.366718791797897</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>11.784085442923795</v>
       </c>
       <c r="E19">
-        <v>200</v>
+        <v>203.7480309362256</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>8.9734137217201031</v>
       </c>
       <c r="G19">
-        <v>9</v>
+        <v>8.1240328696674133</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>96.042386782633628</v>
       </c>
       <c r="I19">
-        <v>0.66335496612766032</v>
+        <v>1.6788461470215459</v>
       </c>
       <c r="J19">
-        <v>105.12185246941883</v>
+        <v>104.49542259897088</v>
       </c>
       <c r="K19">
-        <v>57.348983235593288</v>
+        <v>61.265630894669307</v>
       </c>
       <c r="L19">
-        <v>17.491713766389996</v>
+        <v>18.880792880584835</v>
       </c>
       <c r="M19">
-        <v>0.40249004454041609</v>
+        <v>0.2594150722325746</v>
       </c>
       <c r="N19">
-        <v>3.055419145305819</v>
+        <v>3.1705128669978713</v>
       </c>
       <c r="O19">
-        <v>1.1145608880613203</v>
+        <v>1.2336531503966355</v>
       </c>
       <c r="Q19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -1459,28 +1504,28 @@
         <v>62.142981010099639</v>
       </c>
       <c r="C20">
-        <v>31.366718791797897</v>
+        <v>25</v>
       </c>
       <c r="D20">
         <v>11.784085442923795</v>
       </c>
       <c r="E20">
-        <v>203.7480309362256</v>
+        <v>180</v>
       </c>
       <c r="F20">
-        <v>8.9734137217201031</v>
+        <v>8</v>
       </c>
       <c r="G20">
-        <v>8.1240328696674133</v>
+        <v>10</v>
       </c>
       <c r="H20">
         <v>96.042386782633628</v>
       </c>
       <c r="I20">
-        <v>1.6788461470215459</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="J20">
-        <v>104.49542259897088</v>
+        <v>111</v>
       </c>
       <c r="K20">
         <v>61.265630894669307</v>
@@ -1498,57 +1543,57 @@
         <v>1.2336531503966355</v>
       </c>
       <c r="Q20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>8.6958561328788608</v>
+        <v>7.5965024189209247</v>
       </c>
       <c r="B21">
-        <v>62.142981010099639</v>
+        <v>58.678961322789419</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>34.420918943432561</v>
       </c>
       <c r="D21">
-        <v>11.784085442923795</v>
+        <v>13.080968616698527</v>
       </c>
       <c r="E21">
-        <v>180</v>
+        <v>183.02459190801298</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>8.0330043941596116</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>8.5064908112044595</v>
       </c>
       <c r="H21">
-        <v>96.042386782633628</v>
+        <v>85.657354554385989</v>
       </c>
       <c r="I21">
-        <v>0.79700000000000004</v>
+        <v>1.6457156823740042</v>
       </c>
       <c r="J21">
-        <v>111</v>
+        <v>110.78410466536825</v>
       </c>
       <c r="K21">
-        <v>61.265630894669307</v>
+        <v>59.95369554965567</v>
       </c>
       <c r="L21">
-        <v>18.880792880584835</v>
+        <v>17.757323758381681</v>
       </c>
       <c r="M21">
-        <v>0.2594150722325746</v>
+        <v>0.20678592294399137</v>
       </c>
       <c r="N21">
-        <v>3.1705128669978713</v>
+        <v>3.0039136812443141</v>
       </c>
       <c r="O21">
-        <v>1.2336531503966355</v>
+        <v>2.1937691119044511</v>
       </c>
       <c r="Q21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -1559,22 +1604,22 @@
         <v>58.678961322789419</v>
       </c>
       <c r="C22">
-        <v>34.420918943432561</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>13.080968616698527</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>183.02459190801298</v>
+        <v>200</v>
       </c>
       <c r="F22">
-        <v>8.0330043941596116</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>8.5064908112044595</v>
+        <v>10</v>
       </c>
       <c r="H22">
-        <v>85.657354554385989</v>
+        <v>40</v>
       </c>
       <c r="I22">
         <v>1.6457156823740042</v>
@@ -1589,7 +1634,7 @@
         <v>17.757323758381681</v>
       </c>
       <c r="M22">
-        <v>0.20678592294399137</v>
+        <v>0.379</v>
       </c>
       <c r="N22">
         <v>3.0039136812443141</v>
@@ -1598,309 +1643,259 @@
         <v>2.1937691119044511</v>
       </c>
       <c r="Q22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>7.5965024189209247</v>
+        <v>7.3536573422733458</v>
       </c>
       <c r="B23">
-        <v>58.678961322789419</v>
+        <v>145.51358195599352</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>41.446398693196542</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>13.616411995914438</v>
       </c>
       <c r="E23">
-        <v>200</v>
+        <v>203.154010712314</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>9.0921943085040997</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>12.890263882269315</v>
       </c>
       <c r="H23">
-        <v>40</v>
+        <v>40.028562222760023</v>
       </c>
       <c r="I23">
-        <v>1.6457156823740042</v>
+        <v>1.5419028514744322</v>
       </c>
       <c r="J23">
-        <v>110.78410466536825</v>
+        <v>110.77617308546141</v>
       </c>
       <c r="K23">
-        <v>59.95369554965567</v>
+        <v>59.437218083138688</v>
       </c>
       <c r="L23">
-        <v>17.757323758381681</v>
+        <v>16.710665494749414</v>
       </c>
       <c r="M23">
-        <v>0.379</v>
+        <v>0.29131166104340311</v>
       </c>
       <c r="N23">
-        <v>3.0039136812443141</v>
+        <v>3.0259582239358553</v>
       </c>
       <c r="O23">
-        <v>2.1937691119044511</v>
+        <v>2.4866052718989073</v>
       </c>
       <c r="Q23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>7.3536573422733458</v>
+        <v>7.3424134787600952</v>
       </c>
       <c r="B24">
-        <v>145.51358195599352</v>
+        <v>138.29896365535009</v>
       </c>
       <c r="C24">
-        <v>41.446398693196542</v>
+        <v>42.819769819267968</v>
       </c>
       <c r="D24">
-        <v>13.616411995914438</v>
+        <v>13.717621144832668</v>
       </c>
       <c r="E24">
-        <v>203.154010712314</v>
+        <v>203.47891677673547</v>
       </c>
       <c r="F24">
-        <v>9.0921943085040997</v>
+        <v>9.4217427045218418</v>
       </c>
       <c r="G24">
-        <v>12.890263882269315</v>
+        <v>13.558145638079525</v>
       </c>
       <c r="H24">
-        <v>40.028562222760023</v>
+        <v>39.096971973010021</v>
       </c>
       <c r="I24">
-        <v>1.5419028514744322</v>
+        <v>1.5172159698920451</v>
       </c>
       <c r="J24">
-        <v>110.77617308546141</v>
+        <v>110.6553491566256</v>
       </c>
       <c r="K24">
-        <v>59.437218083138688</v>
+        <v>59.560623800854046</v>
       </c>
       <c r="L24">
-        <v>16.710665494749414</v>
+        <v>17.452101205066626</v>
       </c>
       <c r="M24">
-        <v>0.29131166104340311</v>
+        <v>0.28331447653934783</v>
       </c>
       <c r="N24">
-        <v>3.0259582239358553</v>
+        <v>3.4310830815188984</v>
       </c>
       <c r="O24">
-        <v>2.4866052718989073</v>
+        <v>2.7689957930925151</v>
       </c>
       <c r="Q24" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="R24" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>7.3424134787600952</v>
+        <v>7.6639846072227593</v>
       </c>
       <c r="B25">
-        <v>138.29896365535009</v>
+        <v>201.45623500105938</v>
       </c>
       <c r="C25">
-        <v>42.819769819267968</v>
+        <v>58.856792454431911</v>
       </c>
       <c r="D25">
-        <v>13.717621144832668</v>
+        <v>13.75504369999236</v>
       </c>
       <c r="E25">
-        <v>203.47891677673547</v>
+        <v>204.31184098576691</v>
       </c>
       <c r="F25">
-        <v>9.4217427045218418</v>
+        <v>4.9223461886552276</v>
       </c>
       <c r="G25">
-        <v>13.558145638079525</v>
+        <v>17.424930452865343</v>
       </c>
       <c r="H25">
-        <v>39.096971973010021</v>
+        <v>12.145284697696685</v>
       </c>
       <c r="I25">
-        <v>1.5172159698920451</v>
+        <v>1.5485907853924308</v>
       </c>
       <c r="J25">
-        <v>110.6553491566256</v>
+        <v>111.47379536692596</v>
       </c>
       <c r="K25">
-        <v>59.560623800854046</v>
+        <v>57.890905500639711</v>
       </c>
       <c r="L25">
-        <v>17.452101205066626</v>
+        <v>17.468180272035699</v>
       </c>
       <c r="M25">
-        <v>0.28331447653934783</v>
+        <v>0.28383661754993883</v>
       </c>
       <c r="N25">
-        <v>3.4310830815188984</v>
+        <v>3.6384242920272012</v>
       </c>
       <c r="O25">
-        <v>2.7689957930925151</v>
+        <v>2.5220325747724748</v>
       </c>
       <c r="Q25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>7.6639846072227593</v>
+        <v>7.3424134787600952</v>
       </c>
       <c r="B26">
-        <v>201.45623500105938</v>
+        <v>138.29896365535009</v>
       </c>
       <c r="C26">
-        <v>58.856792454431911</v>
+        <v>42.819769819267968</v>
       </c>
       <c r="D26">
-        <v>13.75504369999236</v>
+        <v>11</v>
       </c>
       <c r="E26">
-        <v>204.31184098576691</v>
+        <v>280</v>
       </c>
       <c r="F26">
-        <v>4.9223461886552276</v>
+        <v>9.4217427045218418</v>
       </c>
       <c r="G26">
-        <v>17.424930452865343</v>
+        <v>10</v>
       </c>
       <c r="H26">
-        <v>12.145284697696685</v>
+        <v>50</v>
       </c>
       <c r="I26">
-        <v>1.5485907853924308</v>
+        <v>1.5172159698920451</v>
       </c>
       <c r="J26">
-        <v>111.47379536692596</v>
+        <v>110.6553491566256</v>
       </c>
       <c r="K26">
-        <v>57.890905500639711</v>
+        <v>59.560623800854046</v>
       </c>
       <c r="L26">
-        <v>17.468180272035699</v>
+        <v>17.452101205066626</v>
       </c>
       <c r="M26">
-        <v>0.28383661754993883</v>
+        <v>0.28331447653934783</v>
       </c>
       <c r="N26">
-        <v>3.6384242920272012</v>
+        <v>3.4310830815188984</v>
       </c>
       <c r="O26">
-        <v>2.5220325747724748</v>
+        <v>2.7689957930925151</v>
       </c>
       <c r="Q26" t="s">
-        <v>35</v>
-      </c>
-      <c r="R26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>7.3424134787600952</v>
+        <v>7.4811031552383245</v>
       </c>
       <c r="B27">
-        <v>138.29896365535009</v>
+        <v>136.07061523301056</v>
       </c>
       <c r="C27">
-        <v>42.819769819267968</v>
+        <v>44.491021462350297</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>11.734723457083298</v>
       </c>
       <c r="E27">
-        <v>280</v>
+        <v>280.55495927743601</v>
       </c>
       <c r="F27">
-        <v>9.4217427045218418</v>
+        <v>9.2476277838689018</v>
       </c>
       <c r="G27">
-        <v>10</v>
+        <v>11.702448015203217</v>
       </c>
       <c r="H27">
-        <v>50</v>
+        <v>49.900779446332642</v>
       </c>
       <c r="I27">
-        <v>1.5172159698920451</v>
+        <v>1.559008524349605</v>
       </c>
       <c r="J27">
-        <v>110.6553491566256</v>
+        <v>110.81974487993503</v>
       </c>
       <c r="K27">
-        <v>59.560623800854046</v>
+        <v>59.226797357232243</v>
       </c>
       <c r="L27">
-        <v>17.452101205066626</v>
+        <v>17.592283295577953</v>
       </c>
       <c r="M27">
-        <v>0.28331447653934783</v>
+        <v>0.27799352194731619</v>
       </c>
       <c r="N27">
-        <v>3.4310830815188984</v>
+        <v>3.4756065213333747</v>
       </c>
       <c r="O27">
-        <v>2.7689957930925151</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>7.4811031552383245</v>
-      </c>
-      <c r="B28">
-        <v>136.07061523301056</v>
-      </c>
-      <c r="C28">
-        <v>44.491021462350297</v>
-      </c>
-      <c r="D28">
-        <v>11.734723457083298</v>
-      </c>
-      <c r="E28">
-        <v>280.55495927743601</v>
-      </c>
-      <c r="F28">
-        <v>9.2476277838689018</v>
-      </c>
-      <c r="G28">
-        <v>11.702448015203217</v>
-      </c>
-      <c r="H28">
-        <v>49.900779446332642</v>
-      </c>
-      <c r="I28">
-        <v>1.559008524349605</v>
-      </c>
-      <c r="J28">
-        <v>110.81974487993503</v>
-      </c>
-      <c r="K28">
-        <v>59.226797357232243</v>
-      </c>
-      <c r="L28">
-        <v>17.592283295577953</v>
-      </c>
-      <c r="M28">
-        <v>0.27799352194731619</v>
-      </c>
-      <c r="N28">
-        <v>3.4756065213333747</v>
-      </c>
-      <c r="O28">
         <v>2.6839263026419995</v>
       </c>
     </row>
